--- a/Excels/xlsx/Scene.xlsx
+++ b/Excels/xlsx/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24285" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>-</t>
   </si>
@@ -54,10 +54,13 @@
     <t>场景名</t>
   </si>
   <si>
-    <t>MainScene</t>
+    <t>StartScene</t>
   </si>
   <si>
-    <t>BattleScene</t>
+    <t>MenuScene</t>
+  </si>
+  <si>
+    <t>MainScene</t>
   </si>
 </sst>
 </file>
@@ -106,14 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,6 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -143,31 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +156,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,16 +191,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,31 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +479,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -492,6 +510,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,30 +552,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,145 +560,145 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,20 +1034,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="16374" width="10.8333333333333" style="1"/>
     <col min="16375" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="18.75" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="18.75" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="18.75" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" ht="18.75" spans="1:2">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1090,6 +1093,14 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/xlsx/Scene.xlsx
+++ b/Excels/xlsx/Scene.xlsx
@@ -95,162 +95,162 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -261,25 +261,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,157 +405,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,15 +452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +466,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,27 +518,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,21 +552,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,10 +560,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,137 +572,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,9 +710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,74 +1031,126 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="16374" width="10.8333333333333" style="1"/>
     <col min="16375" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:2">
+    <row r="1" ht="18.75" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="18.75" spans="1:2">
+    <row r="2" ht="18.75" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="18.75" spans="1:2">
+    <row r="3" ht="18.75" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" ht="18.75" spans="1:2">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" ht="18.75" spans="1:2">
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="2">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="2">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" ht="18.75" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" ht="18.75" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
